--- a/uploaded_file.xlsx
+++ b/uploaded_file.xlsx
@@ -12,7 +12,8 @@
     <sheet name="IA1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="IA2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Assg" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="ESEM" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Practical" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ESEM" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="49">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -54,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practical %</t>
   </si>
   <si>
     <t xml:space="preserve">Reg No</t>
@@ -303,10 +310,10 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
@@ -350,6 +357,22 @@
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -380,7 +403,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
@@ -429,30 +452,30 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>88</v>
@@ -475,7 +498,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>78</v>
@@ -498,7 +521,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>64</v>
@@ -521,7 +544,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>92</v>
@@ -544,7 +567,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>57</v>
@@ -567,7 +590,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>70</v>
@@ -590,7 +613,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>88</v>
@@ -613,7 +636,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>68</v>
@@ -636,7 +659,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>72</v>
@@ -659,7 +682,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>60</v>
@@ -682,7 +705,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>60</v>
@@ -705,7 +728,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>73</v>
@@ -728,7 +751,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>85</v>
@@ -751,7 +774,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>89</v>
@@ -774,7 +797,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>73</v>
@@ -797,7 +820,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>52</v>
@@ -820,7 +843,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>71</v>
@@ -843,7 +866,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>51</v>
@@ -866,7 +889,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>73</v>
@@ -889,7 +912,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>93</v>
@@ -912,7 +935,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>79</v>
@@ -935,7 +958,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>87</v>
@@ -958,7 +981,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>51</v>
@@ -981,7 +1004,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>70</v>
@@ -1004,7 +1027,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>82</v>
@@ -1027,7 +1050,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>61</v>
@@ -1050,7 +1073,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>71</v>
@@ -1073,7 +1096,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>93</v>
@@ -1096,7 +1119,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>74</v>
@@ -1119,7 +1142,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>98</v>
@@ -1162,7 +1185,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
@@ -1211,30 +1234,30 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>60</v>
@@ -1257,7 +1280,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>77</v>
@@ -1280,7 +1303,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>74</v>
@@ -1303,7 +1326,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>88</v>
@@ -1326,7 +1349,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>82</v>
@@ -1349,7 +1372,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>50</v>
@@ -1372,7 +1395,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>76</v>
@@ -1395,7 +1418,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>62</v>
@@ -1418,7 +1441,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>90</v>
@@ -1441,7 +1464,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>52</v>
@@ -1464,7 +1487,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>88</v>
@@ -1487,7 +1510,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>55</v>
@@ -1510,7 +1533,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>57</v>
@@ -1533,7 +1556,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>76</v>
@@ -1556,7 +1579,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>58</v>
@@ -1579,7 +1602,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>86</v>
@@ -1602,7 +1625,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>82</v>
@@ -1625,7 +1648,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>91</v>
@@ -1648,7 +1671,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>93</v>
@@ -1671,7 +1694,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>73</v>
@@ -1694,7 +1717,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>64</v>
@@ -1717,7 +1740,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>81</v>
@@ -1740,7 +1763,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>81</v>
@@ -1763,7 +1786,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>73</v>
@@ -1786,7 +1809,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>90</v>
@@ -1809,7 +1832,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>98</v>
@@ -1832,7 +1855,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>98</v>
@@ -1855,7 +1878,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>61</v>
@@ -1878,7 +1901,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>88</v>
@@ -1901,7 +1924,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>51</v>
@@ -1940,11 +1963,11 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
@@ -1993,30 +2016,30 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>95</v>
@@ -2039,7 +2062,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>55</v>
@@ -2062,7 +2085,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>84</v>
@@ -2085,7 +2108,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>90</v>
@@ -2108,7 +2131,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>86</v>
@@ -2131,7 +2154,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>73</v>
@@ -2154,7 +2177,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>78</v>
@@ -2177,7 +2200,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>98</v>
@@ -2200,7 +2223,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>95</v>
@@ -2223,7 +2246,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>80</v>
@@ -2246,7 +2269,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>84</v>
@@ -2269,7 +2292,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>82</v>
@@ -2292,7 +2315,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>70</v>
@@ -2315,7 +2338,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>81</v>
@@ -2338,7 +2361,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>72</v>
@@ -2361,7 +2384,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>82</v>
@@ -2384,7 +2407,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>52</v>
@@ -2407,7 +2430,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>67</v>
@@ -2430,7 +2453,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>74</v>
@@ -2453,7 +2476,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>91</v>
@@ -2476,7 +2499,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>80</v>
@@ -2499,7 +2522,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>52</v>
@@ -2522,7 +2545,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>89</v>
@@ -2545,7 +2568,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>95</v>
@@ -2568,7 +2591,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>73</v>
@@ -2591,7 +2614,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>99</v>
@@ -2614,7 +2637,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>81</v>
@@ -2637,7 +2660,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>96</v>
@@ -2660,7 +2683,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>71</v>
@@ -2683,7 +2706,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>72</v>
@@ -2720,13 +2743,750 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A6:G36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
@@ -2775,30 +3535,30 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>82</v>
@@ -2821,7 +3581,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>89</v>
@@ -2844,7 +3604,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>59</v>
@@ -2867,7 +3627,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>92</v>
@@ -2890,7 +3650,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>93</v>
@@ -2913,7 +3673,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>78</v>
@@ -2936,7 +3696,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>62</v>
@@ -2959,7 +3719,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>61</v>
@@ -2982,7 +3742,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>80</v>
@@ -3005,7 +3765,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>95</v>
@@ -3028,7 +3788,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>51</v>
@@ -3051,7 +3811,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>99</v>
@@ -3074,7 +3834,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>84</v>
@@ -3097,7 +3857,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>72</v>
@@ -3120,7 +3880,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>66</v>
@@ -3143,7 +3903,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>75</v>
@@ -3166,7 +3926,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>57</v>
@@ -3189,7 +3949,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>78</v>
@@ -3212,7 +3972,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>75</v>
@@ -3235,7 +3995,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>59</v>
@@ -3258,7 +4018,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>75</v>
@@ -3281,7 +4041,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>83</v>
@@ -3304,7 +4064,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>90</v>
@@ -3327,7 +4087,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>56</v>
@@ -3350,7 +4110,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>53</v>
@@ -3373,7 +4133,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>99</v>
@@ -3396,7 +4156,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>94</v>
@@ -3419,7 +4179,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>60</v>
@@ -3442,7 +4202,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>78</v>
@@ -3465,7 +4225,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>85</v>
